--- a/data/05_input/os.mo20a4.xlsx
+++ b/data/05_input/os.mo20a4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4FA36DFC-3B0B-4F6F-9222-CEDC020551D6/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Osativa/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/E97715FA-B816-4D5E-A719-89571A0598AF/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F51A2-7E8D-4247-AC6F-4A67A2025848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B841D-CB05-7441-A4FC-D1BAB79D18CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21260" yWindow="10080" windowWidth="16220" windowHeight="13800" xr2:uid="{3EF05DC5-8EE6-9C45-B45F-75D78B01AF6C}"/>
+    <workbookView xWindow="17380" yWindow="7200" windowWidth="16220" windowHeight="13800" xr2:uid="{3EF05DC5-8EE6-9C45-B45F-75D78B01AF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,28 +104,28 @@
     <t>SampleID</t>
   </si>
   <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M14-SR_L1_I008.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M14-C-SR_L1_I010.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M16-SR_L1_I011.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M16-C-SR_L1_I012.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M32-SR_L1_I022.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M32-C-SR_L1_I023.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M39-SR_L1_I024.R1.clean.fastq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/sRNA/M39-C-SR_L1_I025.R1.clean.fastq.gz</t>
+    <t>M14-SR_L1_I008.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M14-C-SR_L1_I010.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M16-SR_L1_I011.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M16-C-SR_L1_I012.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M32-SR_L1_I022.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M32-C-SR_L1_I023.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M39-SR_L1_I024.R1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>M39-C-SR_L1_I025.R1.clean.fastq.gz</t>
   </si>
 </sst>
 </file>
